--- a/images.xlsx
+++ b/images.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vs2-maint-app\Portail_Maint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\enzob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>REX.png</t>
   </si>
@@ -39,16 +39,30 @@
   </si>
   <si>
     <t>LP3.png</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>file:///\\vsm-file\DP-maint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +85,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,41 +378,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.90625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>